--- a/src/net/datenwerke/rs/samples/templates/jxls/jxlsreports/multiple_queries.xlsx
+++ b/src/net/datenwerke/rs/samples/templates/jxls/jxlsreports/multiple_queries.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Desktop\tmp\jxls\jxlsreports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Desktop\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BEE4D9-78BC-4415-9758-357AC6902068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5ADB74D-3AE3-4201-820D-451DD598BE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24075" windowHeight="12885" xr2:uid="{D1D06D48-80CB-4375-B195-0904EBD3758D}"/>
   </bookViews>
@@ -127,13 +127,13 @@
     <t>${parameters.employeeNumber}</t>
   </si>
   <si>
-    <t>(Version: 1.0.0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Last tested with: ReportServer 4.0.0) </t>
-  </si>
-  <si>
     <t>(You need an integer parameter in ReportServer with key=employeeNumber. You can then pass any employee number, e.g. 1216)</t>
+  </si>
+  <si>
+    <t>(Version: 1.0.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Last tested with: ReportServer 4.0.0-6053) </t>
   </si>
 </sst>
 </file>
@@ -538,7 +538,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,17 +636,17 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
